--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/1.NhanBH/NBH221226_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang12/1.NhanBH/NBH221226_LapDat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="31">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Hà Nội, ngày 26 tháng 12  Năm 2022</t>
+  </si>
+  <si>
+    <t>SL: 3</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
   </si>
 </sst>
 </file>
@@ -517,6 +526,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -544,6 +580,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -555,36 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -959,92 +968,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1077,7 +1086,9 @@
         <v>868183034550652</v>
       </c>
       <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1102,9 @@
         <v>868183038093006</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1118,9 @@
         <v>862205051298654</v>
       </c>
       <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,7 +1134,9 @@
         <v>868183038527797</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1133,7 +1150,9 @@
         <v>868183038077983</v>
       </c>
       <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1166,9 @@
         <v>868183037843112</v>
       </c>
       <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1182,9 @@
         <v>868183037858763</v>
       </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1175,7 +1198,9 @@
         <v>868183033792552</v>
       </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1214,9 @@
         <v>860157040195445</v>
       </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,7 +1230,9 @@
         <v>868183034533989</v>
       </c>
       <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,7 +1246,9 @@
         <v>868183038608902</v>
       </c>
       <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1262,9 @@
         <v>868183037808321</v>
       </c>
       <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1278,9 @@
         <v>868183037811648</v>
       </c>
       <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1294,9 @@
         <v>868183038090465</v>
       </c>
       <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1310,9 @@
         <v>862205051175411</v>
       </c>
       <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,7 +1326,9 @@
         <v>868183038077959</v>
       </c>
       <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1342,9 @@
         <v>868183035889471</v>
       </c>
       <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,7 +1358,9 @@
         <v>868183037834327</v>
       </c>
       <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1374,9 @@
         <v>868183034523931</v>
       </c>
       <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1390,9 @@
         <v>868345035660232</v>
       </c>
       <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1406,9 @@
         <v>868183034595848</v>
       </c>
       <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,7 +1422,9 @@
         <v>868183033803870</v>
       </c>
       <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,7 +1438,9 @@
         <v>862205051296583</v>
       </c>
       <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,7 +1454,9 @@
         <v>868183037823833</v>
       </c>
       <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,7 +1470,9 @@
         <v>868183038478751</v>
       </c>
       <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1486,9 @@
         <v>867857039936278</v>
       </c>
       <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1502,9 @@
         <v>868183037863094</v>
       </c>
       <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,7 +1518,9 @@
         <v>868183038024175</v>
       </c>
       <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1534,9 @@
         <v>868183037846313</v>
       </c>
       <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,7 +1550,9 @@
         <v>862649049681910</v>
       </c>
       <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1566,9 @@
         <v>862649049678957</v>
       </c>
       <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,7 +1582,9 @@
         <v>862649049662589</v>
       </c>
       <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1598,9 @@
         <v>862649049689400</v>
       </c>
       <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,7 +1614,9 @@
         <v>864424041940211</v>
       </c>
       <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,7 +1630,9 @@
         <v>862649049664064</v>
       </c>
       <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1646,9 @@
         <v>862205051174110</v>
       </c>
       <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,7 +1662,9 @@
         <v>868926033929032</v>
       </c>
       <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,7 +1678,9 @@
         <v>868926033921690</v>
       </c>
       <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1694,9 @@
         <v>868926033990539</v>
       </c>
       <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,7 +1710,9 @@
         <v>868926033993632</v>
       </c>
       <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1726,9 @@
         <v>864811036930258</v>
       </c>
       <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="E51" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,7 +1742,9 @@
         <v>864811036919574</v>
       </c>
       <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,7 +1758,9 @@
         <v>869696043532907</v>
       </c>
       <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
+      <c r="E53" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,7 +1774,9 @@
         <v>861694037976113</v>
       </c>
       <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,7 +1790,9 @@
         <v>861694031765546</v>
       </c>
       <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
+      <c r="E55" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,7 +1806,9 @@
         <v>861694037963137</v>
       </c>
       <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
+      <c r="E56" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,7 +1822,9 @@
         <v>868345035589050</v>
       </c>
       <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
+      <c r="E57" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,7 +1838,9 @@
         <v>864811037253775</v>
       </c>
       <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1854,9 @@
         <v>866104022160371</v>
       </c>
       <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1870,9 @@
         <v>861694031118357</v>
       </c>
       <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="E60" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1777,7 +1886,9 @@
         <v>863586032920583</v>
       </c>
       <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
+      <c r="E61" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1791,7 +1902,9 @@
         <v>862631037445797</v>
       </c>
       <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
+      <c r="E62" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1918,9 @@
         <v>202103261225338</v>
       </c>
       <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,7 +1934,9 @@
         <v>861694031110701</v>
       </c>
       <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
+      <c r="E64" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1950,9 @@
         <v>862631037478475</v>
       </c>
       <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,7 +1966,9 @@
         <v>868926033950178</v>
       </c>
       <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,7 +1982,9 @@
         <v>862631034723055</v>
       </c>
       <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
+      <c r="E67" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,7 +1998,9 @@
         <v>861694031760059</v>
       </c>
       <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
+      <c r="E68" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F68" s="31"/>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,7 +2014,9 @@
         <v>862631037515268</v>
       </c>
       <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
+      <c r="E69" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F69" s="31"/>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,7 +2030,9 @@
         <v>861694030851636</v>
       </c>
       <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F70" s="31"/>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +2046,9 @@
         <v>863586034552350</v>
       </c>
       <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
+      <c r="E71" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F71" s="31"/>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,7 +2062,9 @@
         <v>861694037943964</v>
       </c>
       <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
+      <c r="E72" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F72" s="31"/>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1945,7 +2078,9 @@
         <v>867330024403282</v>
       </c>
       <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F73" s="31"/>
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1959,7 +2094,9 @@
         <v>866762024315374</v>
       </c>
       <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F74" s="31"/>
     </row>
     <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,7 +2110,9 @@
         <v>12896000428802</v>
       </c>
       <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
+      <c r="E75" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1987,7 +2126,9 @@
         <v>866762029435334</v>
       </c>
       <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F76" s="31"/>
     </row>
     <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,7 +2142,9 @@
         <v>865904028278346</v>
       </c>
       <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
+      <c r="E77" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F77" s="31"/>
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,7 +2158,9 @@
         <v>865904028278312</v>
       </c>
       <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
+      <c r="E78" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F78" s="31"/>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,7 +2174,9 @@
         <v>864161026900204</v>
       </c>
       <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
+      <c r="E79" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2043,7 +2190,9 @@
         <v>867330024399670</v>
       </c>
       <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
+      <c r="E80" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F80" s="31"/>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,7 +2206,9 @@
         <v>865904020111198</v>
       </c>
       <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
+      <c r="E81" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F81" s="31"/>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2222,9 @@
         <v>861785006292548</v>
       </c>
       <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
+      <c r="E82" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="F82" s="31"/>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,8 +2238,12 @@
         <v>26</v>
       </c>
       <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
+      <c r="E83" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
@@ -2100,23 +2257,23 @@
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="37"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35" t="s">
+      <c r="C86" s="44"/>
+      <c r="D86" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="40"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="49"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
@@ -2152,16 +2309,16 @@
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34" t="s">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="34"/>
-      <c r="F91" s="54"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="50"/>
     </row>
     <row r="92" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
@@ -2189,11 +2346,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="B86:C86"/>
@@ -2203,6 +2355,11 @@
     <mergeCell ref="D91:F91"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
